--- a/docs/图解样例.xlsx
+++ b/docs/图解样例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18288" windowHeight="9767"/>
+    <workbookView windowWidth="22188" windowHeight="9767"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6044,6 +6044,410 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>268605</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>130810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76835</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="组合 3"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11378565" y="3971290"/>
+          <a:ext cx="425450" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="782" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="直接箭头连接符 4"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3936" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="19" name="文本框 18"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="782" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>left</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>494665</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>59690</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="24" name="组合 23"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12221845" y="3983990"/>
+          <a:ext cx="522605" cy="647700"/>
+          <a:chOff x="3624" y="14772"/>
+          <a:chExt cx="962" cy="1020"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp>
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="25" name="直接箭头连接符 24"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3936" y="15204"/>
+            <a:ext cx="24" cy="588"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="arrow"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:srgbClr val="FFFFFF"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp>
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="文本框 37"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3624" y="14772"/>
+            <a:ext cx="962" cy="510"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="zh-CN">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1100">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+              <a:t>right</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6300,7 +6704,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+      <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/docs/图解样例.xlsx
+++ b/docs/图解样例.xlsx
@@ -6703,8 +6703,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>

--- a/docs/图解样例.xlsx
+++ b/docs/图解样例.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9767"/>
+    <workbookView windowWidth="18288" windowHeight="9767"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -737,9 +748,7 @@
         </a:solidFill>
         <a:ln w="38100">
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -911,9 +920,7 @@
         </a:solidFill>
         <a:ln w="38100">
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2747,15 +2754,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>27940</xdr:colOff>
+      <xdr:colOff>26670</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>43180</xdr:colOff>
+      <xdr:colOff>41910</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>99695</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2764,7 +2771,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4348480" y="1463040"/>
+          <a:off x="4347210" y="1478915"/>
           <a:ext cx="632460" cy="632460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2775,9 +2782,7 @@
         </a:solidFill>
         <a:ln w="38100">
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2921,15 +2926,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>33020</xdr:colOff>
+      <xdr:colOff>45720</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>5080</xdr:rowOff>
+      <xdr:rowOff>20955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>48260</xdr:colOff>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2938,7 +2943,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4970780" y="1468120"/>
+          <a:off x="4983480" y="1483995"/>
           <a:ext cx="632460" cy="632460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2949,9 +2954,7 @@
         </a:solidFill>
         <a:ln w="38100">
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3095,15 +3098,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
+      <xdr:colOff>59690</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>10160</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
+      <xdr:colOff>74930</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>93980</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3112,7 +3115,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5608320" y="1473200"/>
+          <a:off x="5614670" y="1470660"/>
           <a:ext cx="632460" cy="632460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3123,9 +3126,7 @@
         </a:solidFill>
         <a:ln w="38100">
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3297,9 +3298,7 @@
         </a:solidFill>
         <a:ln w="38100">
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3443,15 +3442,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>116840</xdr:colOff>
+      <xdr:colOff>103505</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>132080</xdr:colOff>
+      <xdr:colOff>118745</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>96520</xdr:rowOff>
+      <xdr:rowOff>115570</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3460,7 +3459,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6906260" y="1475740"/>
+          <a:off x="6892925" y="1494790"/>
           <a:ext cx="632460" cy="632460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3471,9 +3470,7 @@
         </a:solidFill>
         <a:ln w="38100">
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3645,9 +3642,7 @@
         </a:solidFill>
         <a:ln w="38100">
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3819,9 +3814,7 @@
         </a:solidFill>
         <a:ln w="38100">
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3993,9 +3986,7 @@
         </a:solidFill>
         <a:ln w="38100">
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -4167,9 +4158,7 @@
         </a:solidFill>
         <a:ln w="38100">
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -4341,9 +4330,7 @@
         </a:solidFill>
         <a:ln w="38100">
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -4515,9 +4502,7 @@
         </a:solidFill>
         <a:ln w="38100">
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -4689,9 +4674,7 @@
         </a:solidFill>
         <a:ln w="38100">
           <a:solidFill>
-            <a:schemeClr val="accent1">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -6701,14 +6684,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="H39:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="39" spans="15:15">
+      <c r="O39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="8:8">
+      <c r="H42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
